--- a/Documents/QuiFaitQuoiPOURTEST.xlsx
+++ b/Documents/QuiFaitQuoiPOURTEST.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="S2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="S4.A" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="100">
   <si>
     <t xml:space="preserve">Ressource</t>
   </si>
@@ -104,30 +105,126 @@
     <t xml:space="preserve">JJ</t>
   </si>
   <si>
+    <t xml:space="preserve">Jadesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.04 Introduction aux systèmes d'exploitation, à leur fonctionnement</t>
   </si>
   <si>
+    <t xml:space="preserve">Rayanne Dieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugo LeDieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.05 Introduction aux bases de données et SQL</t>
   </si>
   <si>
+    <t xml:space="preserve">Maïlis G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo Bebar</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.06 Mathématiques discrètes</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyes Yacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ugo Ugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UU</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.07 Outils mathématiques fondamentaux</t>
   </si>
   <si>
+    <t xml:space="preserve">Asuna Yuuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got ot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.08 Introduction à la gestion des organisations</t>
   </si>
   <si>
+    <t xml:space="preserve">Tacos Viande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.09 Introduction à l'économie durable et numérique</t>
   </si>
   <si>
+    <t xml:space="preserve">Pio Piou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.10 Anglais technique</t>
   </si>
   <si>
+    <t xml:space="preserve">KaKarla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clavier Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.11 Bases de la communication</t>
   </si>
   <si>
+    <t xml:space="preserve">Alexandra Salou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR Ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
     <t xml:space="preserve">R1.12 PPP</t>
   </si>
   <si>
@@ -155,19 +252,46 @@
     <t xml:space="preserve">iiii</t>
   </si>
   <si>
-    <t xml:space="preserve">double i</t>
+    <t xml:space="preserve">tt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN</t>
   </si>
   <si>
     <t xml:space="preserve">R2.01 Développement orienté objet</t>
   </si>
   <si>
+    <t xml:space="preserve">mavie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2.02 Développement d'applications avec IHM</t>
   </si>
   <si>
+    <t xml:space="preserve">mabelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2.03 Qualité de développement</t>
   </si>
   <si>
+    <t xml:space="preserve">moi</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2.04 Communication et fonctionnement bas niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non</t>
   </si>
   <si>
     <t xml:space="preserve">R2.05 Introduction aux services réseaux</t>
@@ -654,13 +778,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -930,9 +1054,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -944,9 +1097,64 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -958,9 +1166,64 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -972,9 +1235,67 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -986,9 +1307,67 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1000,9 +1379,67 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1014,9 +1451,38 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -1028,9 +1494,67 @@
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -1042,9 +1566,67 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>440000</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>444444</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1058,10 +1640,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>16</v>
@@ -1087,10 +1669,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>16</v>
@@ -1116,7 +1698,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -1130,7 +1712,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1144,10 +1726,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>13</v>
@@ -1173,10 +1755,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>16</v>
@@ -1198,6 +1780,35 @@
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1221,10 +1832,10 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -1274,7 +1885,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1289,15 +1900,33 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -1313,7 +1942,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1327,15 +1956,33 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1351,7 +1998,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1363,9 +2010,38 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1377,9 +2053,35 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1393,7 +2095,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -1407,7 +2109,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1421,7 +2123,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -1435,7 +2137,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -1449,7 +2151,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -1463,7 +2165,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -1477,7 +2179,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="31" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -1491,7 +2193,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="32" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -1505,7 +2207,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -1519,7 +2221,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1542,4 +2244,1043 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>440000</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>444444</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Documents/QuiFaitQuoiPOURTEST.xlsx
+++ b/Documents/QuiFaitQuoiPOURTEST.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="113">
   <si>
     <t xml:space="preserve">Ressource</t>
   </si>
@@ -322,6 +322,45 @@
   </si>
   <si>
     <t xml:space="preserve">R2.14 PPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.01 Initiation au développement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.02 Développement d'interfaces web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.03 Introduction à l'architecture des ordinateurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.04 Introduction aux systèmes d'exploitation, à leur fonctionnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.05 Introduction aux bases de données et SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.06 Mathématiques discrètes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.07 Outils mathématiques fondamentaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.08 Introduction à la gestion des organisations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.09 Introduction à l'économie durable et numérique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.10 Anglais technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.11 Bases de la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.12 PPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4.L.1 Méthodologie du travail universitaire</t>
   </si>
 </sst>
 </file>
@@ -784,7 +823,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -1831,11 +1870,11 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -2253,11 +2292,11 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2294,7 +2333,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2399,7 +2438,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2473,7 +2512,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2545,7 +2584,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2614,7 +2653,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2683,7 +2722,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2755,7 +2794,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2827,7 +2866,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2899,7 +2938,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2943,7 +2982,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -3015,7 +3054,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3087,7 +3126,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -3175,7 +3214,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>

--- a/Documents/QuiFaitQuoiPOURTEST.xlsx
+++ b/Documents/QuiFaitQuoiPOURTEST.xlsx
@@ -823,7 +823,7 @@
       <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -1874,7 +1874,7 @@
       <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.63"/>
@@ -2293,10 +2293,10 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
